--- a/Projeto/Results/Neural_Network.xlsx
+++ b/Projeto/Results/Neural_Network.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,18 +430,18 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3982</v>
+        <v>3914</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4767</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="7">
@@ -453,18 +453,18 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15965</v>
+        <v>15721</v>
       </c>
       <c r="B8" t="n">
-        <v>57</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>19063</v>
+        <v>19078</v>
       </c>
     </row>
     <row r="11">
@@ -487,14 +487,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">         0.0       1.00      1.00      1.00      3996</t>
+          <t xml:space="preserve">         0.0       1.00      0.98      0.99      3996</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">         1.0       1.00      1.00      1.00      4783</t>
+          <t xml:space="preserve">         1.0       0.98      1.00      0.99      4783</t>
         </is>
       </c>
     </row>
@@ -504,21 +504,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">    accuracy                           1.00      8779</t>
+          <t xml:space="preserve">    accuracy                           0.99      8779</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">   macro avg       1.00      1.00      1.00      8779</t>
+          <t xml:space="preserve">   macro avg       0.99      0.99      0.99      8779</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>weighted avg       1.00      1.00      1.00      8779</t>
+          <t>weighted avg       0.99      0.99      0.99      8779</t>
         </is>
       </c>
     </row>
@@ -545,14 +545,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">         0.0       1.00      1.00      1.00     16022</t>
+          <t xml:space="preserve">         0.0       1.00      0.98      0.99     16022</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">         1.0       1.00      1.00      1.00     19094</t>
+          <t xml:space="preserve">         1.0       0.98      1.00      0.99     19094</t>
         </is>
       </c>
     </row>
@@ -562,21 +562,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">    accuracy                           1.00     35116</t>
+          <t xml:space="preserve">    accuracy                           0.99     35116</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">   macro avg       1.00      1.00      1.00     35116</t>
+          <t xml:space="preserve">   macro avg       0.99      0.99      0.99     35116</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>weighted avg       1.00      1.00      1.00     35116</t>
+          <t>weighted avg       0.99      0.99      0.99     35116</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9965827543000342</v>
+        <v>0.9902038956600979</v>
       </c>
     </row>
     <row r="35">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9974940198200251</v>
+        <v>0.9909727759425903</v>
       </c>
     </row>
     <row r="37">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9970717423133236</v>
+        <v>0.9831310429952684</v>
       </c>
     </row>
     <row r="39">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9970188284518828</v>
+        <v>0.9844677227927138</v>
       </c>
     </row>
     <row r="41">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9966548191511604</v>
+        <v>0.99916370478779</v>
       </c>
     </row>
     <row r="43">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9983764533361266</v>
+        <v>0.9991620404315492</v>
       </c>
     </row>
     <row r="45">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9968632371392723</v>
+        <v>0.9910825383658233</v>
       </c>
     </row>
     <row r="47">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9976971790443293</v>
+        <v>0.9917604553842955</v>
       </c>
     </row>
     <row r="49">
@@ -671,7 +671,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0:00:28.892301</t>
+          <t>0:02:46.388099</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{'solver': 'adam', 'hidden_layer_sizes': (50,), 'alpha': 0.01, 'activation': 'relu'}</t>
+          <t>{'solver': 'adam', 'hidden_layer_sizes': (100,), 'alpha': 0.001, 'activation': 'logistic'}</t>
         </is>
       </c>
     </row>
